--- a/database/admins.xlsx
+++ b/database/admins.xlsx
@@ -397,50 +397,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>$__</v>
+        <v>$isNew</v>
       </c>
       <c r="B1" t="str">
-        <v>$isNew</v>
+        <v>username</v>
       </c>
       <c r="C1" t="str">
-        <v>_doc</v>
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>password</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="b">
+      <c r="A2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="b">
+      <c r="A3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="b">
+      <c r="A4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="b">
+      <c r="A5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="b">
+      <c r="A6" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Jeevan</v>
+      </c>
+      <c r="C7" t="str">
+        <v>jeevan@admin.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>jeevan@123</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/admins.xlsx
+++ b/database/admins.xlsx
@@ -397,64 +397,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>$__</v>
+      </c>
+      <c r="B1" t="str">
         <v>$isNew</v>
       </c>
-      <c r="B1" t="str">
-        <v>username</v>
-      </c>
       <c r="C1" t="str">
-        <v>email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>password</v>
+        <v>_doc</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b">
+      <c r="B2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="b">
+      <c r="B3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="b">
+      <c r="B4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="b">
+      <c r="B5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="b">
+      <c r="B6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="str">
-        <v>Jeevan</v>
-      </c>
-      <c r="C7" t="str">
-        <v>jeevan@admin.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>jeevan@123</v>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/admins.xlsx
+++ b/database/admins.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,9 +443,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/admins.xlsx
+++ b/database/admins.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,14 +443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>